--- a/Mifos Automation Excels/Client/3012-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%APR-AMT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3012-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%APR-AMT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -168,19 +168,13 @@
     <t>repaymenttransactiondate</t>
   </si>
   <si>
-    <t>Income from penalties(9)</t>
-  </si>
-  <si>
-    <t>$ 785.8</t>
-  </si>
-  <si>
     <t>$ 101.92</t>
   </si>
   <si>
-    <t>$ 7.86</t>
-  </si>
-  <si>
     <t>$ 895.58</t>
+  </si>
+  <si>
+    <t>$ 793.66</t>
   </si>
 </sst>
 </file>
@@ -287,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -323,9 +317,6 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -652,7 +643,7 @@
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>42036</v>
       </c>
     </row>
@@ -666,7 +657,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,25 +696,25 @@
         <v>10000</v>
       </c>
       <c r="B2" s="7">
-        <v>0</v>
+        <v>793.66</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1581.47</v>
+      <c r="E2" s="10">
+        <v>9206.34</v>
+      </c>
+      <c r="F2" s="7">
+        <v>802.97</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>685.07</v>
+        <v>667.48</v>
       </c>
       <c r="B3" s="7">
-        <v>0</v>
+        <v>101.92</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -732,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>685.07</v>
+        <v>565.55999999999995</v>
       </c>
       <c r="F3" s="7">
-        <v>193.97</v>
+        <v>84.75</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -752,7 +743,6 @@
         <v>0</v>
       </c>
       <c r="E4" s="7">
-        <f>A4-B4</f>
         <v>0</v>
       </c>
       <c r="F4" s="7">
@@ -761,10 +751,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B5" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -790,7 +780,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection sqref="A1:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,6 +878,7 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -905,10 +896,10 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="7">
-        <v>785.8</v>
+        <v>793.66</v>
       </c>
       <c r="G3" s="10">
-        <v>9214.2000000000007</v>
+        <v>9206.34</v>
       </c>
       <c r="H3" s="7">
         <v>101.92</v>
@@ -917,18 +908,21 @@
         <v>0</v>
       </c>
       <c r="J3" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
-        <v>987.74</v>
-      </c>
-      <c r="L3" s="17">
-        <v>987.74</v>
+        <v>895.58</v>
+      </c>
+      <c r="L3" s="7">
+        <v>895.58</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
       </c>
       <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
         <v>0</v>
       </c>
       <c r="P3" s="7">
@@ -948,13 +942,13 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
-        <v>802.9</v>
+        <v>802.97</v>
       </c>
       <c r="G4" s="10">
-        <v>8411.2999999999993</v>
+        <v>8403.3700000000008</v>
       </c>
       <c r="H4" s="7">
-        <v>84.82</v>
+        <v>84.75</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
@@ -963,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="7">
         <v>0</v>
@@ -974,8 +968,11 @@
       <c r="N4" s="7">
         <v>0</v>
       </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
       <c r="P4" s="7">
-        <v>888.57</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -991,13 +988,13 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
-        <v>793.81</v>
+        <v>793.89</v>
       </c>
       <c r="G5" s="10">
-        <v>7617.49</v>
+        <v>7609.48</v>
       </c>
       <c r="H5" s="7">
-        <v>93.91</v>
+        <v>93.83</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -1006,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L5" s="7">
         <v>0</v>
@@ -1017,8 +1014,11 @@
       <c r="N5" s="7">
         <v>0</v>
       </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
       <c r="P5" s="7">
-        <v>888.66</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1034,13 +1034,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>812.59</v>
+        <v>812.67</v>
       </c>
       <c r="G6" s="10">
-        <v>6804.9</v>
+        <v>6796.81</v>
       </c>
       <c r="H6" s="7">
-        <v>75.13</v>
+        <v>75.05</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L6" s="7">
         <v>0</v>
@@ -1060,8 +1060,11 @@
       <c r="N6" s="7">
         <v>0</v>
       </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
       <c r="P6" s="7">
-        <v>888.47</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1077,13 +1080,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
-        <v>818.37</v>
+        <v>818.45</v>
       </c>
       <c r="G7" s="10">
-        <v>5986.53</v>
+        <v>5978.36</v>
       </c>
       <c r="H7" s="7">
-        <v>69.349999999999994</v>
+        <v>69.27</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1092,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L7" s="7">
         <v>0</v>
@@ -1103,8 +1106,11 @@
       <c r="N7" s="7">
         <v>0</v>
       </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
       <c r="P7" s="7">
-        <v>888.41</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1120,13 +1126,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
-        <v>828.67</v>
+        <v>828.76</v>
       </c>
       <c r="G8" s="10">
-        <v>5157.8599999999997</v>
+        <v>5149.6000000000004</v>
       </c>
       <c r="H8" s="7">
-        <v>59.05</v>
+        <v>58.96</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1135,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L8" s="7">
         <v>0</v>
@@ -1146,8 +1152,11 @@
       <c r="N8" s="7">
         <v>0</v>
       </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
       <c r="P8" s="7">
-        <v>888.31</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1163,13 +1172,13 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>835.15</v>
+        <v>835.24</v>
       </c>
       <c r="G9" s="10">
-        <v>4322.71</v>
+        <v>4314.3599999999997</v>
       </c>
       <c r="H9" s="7">
-        <v>52.57</v>
+        <v>52.48</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1178,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
@@ -1189,8 +1198,11 @@
       <c r="N9" s="7">
         <v>0</v>
       </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
       <c r="P9" s="7">
-        <v>888.25</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1206,13 +1218,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>843.66</v>
+        <v>843.75</v>
       </c>
       <c r="G10" s="10">
-        <v>3479.05</v>
+        <v>3470.61</v>
       </c>
       <c r="H10" s="7">
-        <v>44.06</v>
+        <v>43.97</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1221,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L10" s="7">
         <v>0</v>
@@ -1232,8 +1244,11 @@
       <c r="N10" s="7">
         <v>0</v>
       </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
       <c r="P10" s="7">
-        <v>888.16</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1249,13 +1264,13 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>853.41</v>
+        <v>853.49</v>
       </c>
       <c r="G11" s="10">
-        <v>2625.64</v>
+        <v>2617.12</v>
       </c>
       <c r="H11" s="7">
-        <v>34.31</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1264,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L11" s="7">
         <v>0</v>
@@ -1275,8 +1290,11 @@
       <c r="N11" s="7">
         <v>0</v>
       </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
       <c r="P11" s="7">
-        <v>888.06</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1292,13 +1310,13 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <v>860.96</v>
+        <v>861.05</v>
       </c>
       <c r="G12" s="10">
-        <v>1764.68</v>
+        <v>1756.07</v>
       </c>
       <c r="H12" s="7">
-        <v>26.76</v>
+        <v>26.67</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1307,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
@@ -1318,8 +1336,11 @@
       <c r="N12" s="7">
         <v>0</v>
       </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
       <c r="P12" s="7">
-        <v>887.99</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1335,13 +1356,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
-        <v>870.31</v>
+        <v>870.4</v>
       </c>
       <c r="G13" s="7">
-        <v>894.37</v>
+        <v>885.67</v>
       </c>
       <c r="H13" s="7">
-        <v>17.41</v>
+        <v>17.32</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1350,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L13" s="7">
         <v>0</v>
@@ -1361,8 +1382,11 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
       <c r="P13" s="7">
-        <v>887.89</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1378,13 +1402,13 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
-        <v>894.37</v>
+        <v>885.67</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>9.1199999999999992</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1393,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>887.74</v>
+        <v>894.7</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -1404,8 +1428,11 @@
       <c r="N14" s="7">
         <v>0</v>
       </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
       <c r="P14" s="7">
-        <v>903.58</v>
+        <v>894.7</v>
       </c>
     </row>
   </sheetData>
@@ -1416,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,7 +1464,7 @@
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1469,9 +1496,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>674</v>
+        <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1486,7 +1513,7 @@
         <v>895.58</v>
       </c>
       <c r="F2" s="7">
-        <v>785.8</v>
+        <v>793.66</v>
       </c>
       <c r="G2" s="7">
         <v>101.92</v>
@@ -1495,15 +1522,17 @@
         <v>0</v>
       </c>
       <c r="I2" s="7">
-        <v>7.86</v>
+        <v>0</v>
       </c>
       <c r="J2" s="10">
-        <v>9214.2000000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9206.34</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1532,6 +1561,8 @@
       <c r="J3" s="9">
         <v>10000</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1542,7 +1573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1636,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1736,7 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1732,12 +1763,12 @@
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>27</v>
@@ -1749,45 +1780,18 @@
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="14">
-        <v>42036</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3012-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%APR-AMT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3012-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%APR-AMT-Regular-CASH-Makerepayment1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -141,15 +141,9 @@
     <t>Repayment</t>
   </si>
   <si>
-    <t>INCOME</t>
-  </si>
-  <si>
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>L216</t>
-  </si>
-  <si>
     <t>$ 10,000</t>
   </si>
   <si>
@@ -168,13 +162,34 @@
     <t>repaymenttransactiondate</t>
   </si>
   <si>
+    <t xml:space="preserve">Head Office </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L83 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mifos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCOME </t>
+  </si>
+  <si>
+    <t>Income from penalties(9)</t>
+  </si>
+  <si>
+    <t>$ 785.8</t>
+  </si>
+  <si>
     <t>$ 101.92</t>
   </si>
   <si>
+    <t>$ 7.86</t>
+  </si>
+  <si>
     <t>$ 895.58</t>
-  </si>
-  <si>
-    <t>$ 793.66</t>
   </si>
 </sst>
 </file>
@@ -281,14 +296,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -312,12 +324,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,7 +638,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,18 +648,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="17">
+      <c r="B2" s="15">
         <v>42036</v>
       </c>
     </row>
@@ -657,18 +673,18 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -692,81 +708,81 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>10000</v>
       </c>
-      <c r="B2" s="7">
-        <v>793.66</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10">
-        <v>9206.34</v>
-      </c>
-      <c r="F2" s="7">
-        <v>802.97</v>
+      <c r="B2" s="6">
+        <v>785.8</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>9214.2000000000007</v>
+      </c>
+      <c r="F2" s="6">
+        <v>802.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>667.48</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="6">
+        <v>668.41</v>
+      </c>
+      <c r="B3" s="6">
         <v>101.92</v>
       </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>565.55999999999995</v>
-      </c>
-      <c r="F3" s="7">
-        <v>84.75</v>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>566.49</v>
+      </c>
+      <c r="F3" s="6">
+        <v>84.82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="A4" s="6">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>0</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
+      <c r="A5" s="6">
+        <v>15.89</v>
+      </c>
+      <c r="B5" s="6">
+        <v>7.86</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="F5" s="6">
+        <v>8.0299999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -777,10 +793,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +819,7 @@
     <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -853,586 +869,597 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7">
         <v>42005</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="9">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8">
         <v>10000</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>31</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>42036</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>42036</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="7">
-        <v>793.66</v>
-      </c>
-      <c r="G3" s="10">
-        <v>9206.34</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="E3" s="10"/>
+      <c r="F3" s="6">
+        <v>785.8</v>
+      </c>
+      <c r="G3" s="9">
+        <v>9214.2000000000007</v>
+      </c>
+      <c r="H3" s="6">
         <v>101.92</v>
       </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>7.86</v>
+      </c>
+      <c r="K3" s="6">
         <v>895.58</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>895.58</v>
       </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>G2*(12%/365)*B3</f>
+        <v>101.91780821917808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>28</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>42064</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <v>802.97</v>
-      </c>
-      <c r="G4" s="10">
-        <v>8403.3700000000008</v>
-      </c>
-      <c r="H4" s="7">
-        <v>84.75</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>802.9</v>
+      </c>
+      <c r="G4" s="9">
+        <v>8411.2999999999993</v>
+      </c>
+      <c r="H4" s="6">
+        <v>84.82</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="K4" s="6">
+        <v>895.75</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>895.75</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q14" si="0">G3*(12%/365)*B4</f>
+        <v>84.821128767123298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42095</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>793.81</v>
+      </c>
+      <c r="G5" s="9">
+        <v>7617.49</v>
+      </c>
+      <c r="H5" s="6">
+        <v>93.91</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
         <v>887.72</v>
       </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
         <v>887.72</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>85.726126027397257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>42125</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>812.59</v>
+      </c>
+      <c r="G6" s="9">
+        <v>6804.9</v>
+      </c>
+      <c r="H6" s="6">
+        <v>75.13</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>75.131408219178084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
         <v>31</v>
       </c>
-      <c r="C5" s="8">
-        <v>42095</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
-        <v>793.89</v>
-      </c>
-      <c r="G5" s="10">
-        <v>7609.48</v>
-      </c>
-      <c r="H5" s="7">
-        <v>93.83</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="C7" s="7">
+        <v>42156</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
+        <v>818.37</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5986.53</v>
+      </c>
+      <c r="H7" s="6">
+        <v>69.349999999999994</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
         <v>887.72</v>
       </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
         <v>887.72</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>69.354049315068494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
         <v>30</v>
       </c>
-      <c r="C6" s="8">
-        <v>42125</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <v>812.67</v>
-      </c>
-      <c r="G6" s="10">
-        <v>6796.81</v>
-      </c>
-      <c r="H6" s="7">
-        <v>75.05</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="C8" s="7">
+        <v>42186</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>828.67</v>
+      </c>
+      <c r="G8" s="9">
+        <v>5157.8599999999997</v>
+      </c>
+      <c r="H8" s="6">
+        <v>59.05</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
         <v>887.72</v>
       </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
         <v>887.72</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>59.045227397260277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
         <v>31</v>
       </c>
-      <c r="C7" s="8">
-        <v>42156</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
-        <v>818.45</v>
-      </c>
-      <c r="G7" s="10">
-        <v>5978.36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>69.27</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="C9" s="7">
+        <v>42217</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>835.15</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4322.71</v>
+      </c>
+      <c r="H9" s="6">
+        <v>52.57</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
         <v>887.72</v>
       </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
         <v>887.72</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>52.567778630136985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7">
+        <v>42248</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>843.66</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3479.05</v>
+      </c>
+      <c r="H10" s="6">
+        <v>44.06</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>44.056112876712326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
         <v>30</v>
       </c>
-      <c r="C8" s="8">
-        <v>42186</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
-        <v>828.76</v>
-      </c>
-      <c r="G8" s="10">
-        <v>5149.6000000000004</v>
-      </c>
-      <c r="H8" s="7">
-        <v>58.96</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="C11" s="7">
+        <v>42278</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <v>853.41</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2625.64</v>
+      </c>
+      <c r="H11" s="6">
+        <v>34.31</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
         <v>887.72</v>
       </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
         <v>887.72</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>34.31391780821918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
         <v>31</v>
       </c>
-      <c r="C9" s="8">
-        <v>42217</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
-        <v>835.24</v>
-      </c>
-      <c r="G9" s="10">
-        <v>4314.3599999999997</v>
-      </c>
-      <c r="H9" s="7">
-        <v>52.48</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="C12" s="7">
+        <v>42309</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>860.96</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1764.68</v>
+      </c>
+      <c r="H12" s="6">
+        <v>26.76</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
         <v>887.72</v>
       </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
         <v>887.72</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>26.759947397260273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7">
+        <v>42339</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>870.31</v>
+      </c>
+      <c r="G13" s="6">
+        <v>894.37</v>
+      </c>
+      <c r="H13" s="6">
+        <v>17.41</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>17.40506301369863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
         <v>31</v>
       </c>
-      <c r="C10" s="8">
-        <v>42248</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7">
-        <v>843.75</v>
-      </c>
-      <c r="G10" s="10">
-        <v>3470.61</v>
-      </c>
-      <c r="H10" s="7">
-        <v>43.97</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>887.72</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7">
-        <v>30</v>
-      </c>
-      <c r="C11" s="8">
-        <v>42278</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7">
-        <v>853.49</v>
-      </c>
-      <c r="G11" s="10">
-        <v>2617.12</v>
-      </c>
-      <c r="H11" s="7">
-        <v>34.229999999999997</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>887.72</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8">
-        <v>42309</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
-        <v>861.05</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1756.07</v>
-      </c>
-      <c r="H12" s="7">
-        <v>26.67</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>887.72</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7">
-        <v>30</v>
-      </c>
-      <c r="C13" s="8">
-        <v>42339</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7">
-        <v>870.4</v>
-      </c>
-      <c r="G13" s="7">
-        <v>885.67</v>
-      </c>
-      <c r="H13" s="7">
-        <v>17.32</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
-        <v>887.72</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7">
-        <v>31</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>42370</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
-        <v>885.67</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <v>894.7</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>894.7</v>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>894.37</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>903.49</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>903.49</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>9.1152230136986301</v>
       </c>
     </row>
   </sheetData>
@@ -1446,22 +1473,22 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1497,68 +1524,68 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6">
+        <v>101</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>42036</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>895.58</v>
       </c>
-      <c r="F2" s="7">
-        <v>793.66</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="F2" s="6">
+        <v>785.8</v>
+      </c>
+      <c r="G2" s="6">
         <v>101.92</v>
       </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
-        <v>9206.34</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>7.86</v>
+      </c>
+      <c r="J2" s="9">
+        <v>9214.2000000000007</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="6">
+        <v>97</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>42005</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>10000</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
         <v>10000</v>
       </c>
       <c r="K3"/>
@@ -1580,31 +1607,31 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1613,13 +1640,13 @@
         <v>3640</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="15">
+        <v>43</v>
+      </c>
+      <c r="C2" s="13">
         <v>42005</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -1631,7 +1658,7 @@
         <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1639,13 +1666,13 @@
         <v>3641</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="15">
+        <v>43</v>
+      </c>
+      <c r="C3" s="13">
         <v>42005</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -1657,7 +1684,7 @@
         <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1667,131 +1694,158 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="17" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="13"/>
-    <col min="7" max="7" width="21.85546875" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="17" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="12"/>
+    <col min="7" max="7" width="21.85546875" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="A2" s="12">
+        <v>110</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="16">
         <v>42036</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>111</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="16">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="F3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>112</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="16">
         <v>42036</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>113</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="16">
+        <v>42036</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="14">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="4"/>
+      <c r="H5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3012-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%APR-AMT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3012-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%APR-AMT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -793,10 +793,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,12 +814,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="17" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -859,17 +860,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -895,8 +897,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -934,18 +937,19 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <f>G2*(12%/365)*B3</f>
         <v>101.91780821917808</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -981,18 +985,19 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>895.75</v>
       </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q14" si="0">G3*(12%/365)*B4</f>
+      <c r="R4">
+        <f t="shared" ref="R4:R14" si="0">G3*(12%/365)*B4</f>
         <v>84.821128767123298</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1028,18 +1033,19 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>887.72</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <f t="shared" si="0"/>
         <v>85.726126027397257</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1075,18 +1081,19 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>887.72</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f t="shared" si="0"/>
         <v>75.131408219178084</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1122,18 +1129,19 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>887.72</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f t="shared" si="0"/>
         <v>69.354049315068494</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1169,18 +1177,19 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>887.72</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <f t="shared" si="0"/>
         <v>59.045227397260277</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1216,18 +1225,19 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>887.72</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <f t="shared" si="0"/>
         <v>52.567778630136985</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1263,18 +1273,19 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>887.72</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <f t="shared" si="0"/>
         <v>44.056112876712326</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1310,18 +1321,19 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>887.72</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <f t="shared" si="0"/>
         <v>34.31391780821918</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1357,18 +1369,19 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>887.72</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <f t="shared" si="0"/>
         <v>26.759947397260273</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1404,18 +1417,19 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>887.72</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <f t="shared" si="0"/>
         <v>17.40506301369863</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1451,13 +1465,14 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>903.49</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <f t="shared" si="0"/>
         <v>9.1152230136986301</v>
       </c>
@@ -1696,7 +1711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
